--- a/src/json-server/panel_modbus.xlsx
+++ b/src/json-server/panel_modbus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sholudkod\WebstormProjects\cogen\src\json-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B18F3F-2E33-4083-A925-99618A200957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC256E3-7A85-480A-8006-D89B79C0C41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="216" windowWidth="18576" windowHeight="11496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3216" yWindow="324" windowWidth="18576" windowHeight="11496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш 1 - Таблиця 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="99">
   <si>
     <t>Holding</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>smoke_fan_speed</t>
+  </si>
+  <si>
+    <t>ror</t>
   </si>
 </sst>
 </file>
@@ -1612,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -2480,7 +2483,9 @@
       <c r="F33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="H33" s="3">
         <f t="shared" si="1"/>
         <v>45</v>

--- a/src/json-server/panel_modbus.xlsx
+++ b/src/json-server/panel_modbus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sholudkod\WebstormProjects\cogen\src\json-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC256E3-7A85-480A-8006-D89B79C0C41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BDCCDC-8521-452F-9254-457F4BEE0F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3216" yWindow="324" windowWidth="18576" windowHeight="11496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="100">
   <si>
     <t>Holding</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>ror</t>
+  </si>
+  <si>
+    <t>int/post</t>
   </si>
 </sst>
 </file>
@@ -347,7 +350,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +366,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +431,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -447,13 +456,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1615,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -1682,7 +1694,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>93</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1714,7 +1726,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="7"/>
       <c r="H4" s="3">
         <f t="shared" ref="H4:H48" si="1">A4-99</f>
@@ -1820,7 +1832,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -1876,7 +1888,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -1966,7 +1978,7 @@
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -2022,7 +2034,7 @@
       <c r="E15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -2080,7 +2092,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -2508,7 +2520,7 @@
         <v>44</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G34" s="3" t="s">
@@ -2536,7 +2548,7 @@
         <v>45</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -2564,7 +2576,7 @@
         <v>46</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -2592,7 +2604,7 @@
         <v>47</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G37" s="3" t="s">
@@ -2620,7 +2632,7 @@
         <v>48</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -2648,7 +2660,7 @@
         <v>49</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G39" s="3" t="s">
@@ -2676,7 +2688,7 @@
         <v>50</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -2704,7 +2716,7 @@
         <v>51</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -2732,7 +2744,7 @@
         <v>52</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G42" s="3" t="s">
@@ -2760,7 +2772,7 @@
         <v>53</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G43" s="3" t="s">
@@ -2788,7 +2800,7 @@
         <v>54</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -2818,8 +2830,8 @@
       <c r="E45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>60</v>
+      <c r="F45" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>89</v>
@@ -2849,7 +2861,7 @@
       <c r="F46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="8" t="s">
         <v>90</v>
       </c>
       <c r="H46" s="3">
@@ -2877,7 +2889,7 @@
       <c r="F47" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="8" t="s">
         <v>91</v>
       </c>
       <c r="H47" s="3">
@@ -2907,7 +2919,7 @@
       <c r="F48" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="8" t="s">
         <v>92</v>
       </c>
       <c r="H48" s="3">
